--- a/public/assets/excel/file.xlsx
+++ b/public/assets/excel/file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abyss Web Server\htdocs\VacIt\public\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Abyss Web Server\htdocs\VacIt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>gezellig</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
   <dimension ref="B1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,6 +505,9 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" t="s">
         <v>15</v>
       </c>
